--- a/RESULTS/_AUXILIARY/PS112_summary_effort.xlsx
+++ b/RESULTS/_AUXILIARY/PS112_summary_effort.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">date_min</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t xml:space="preserve">gs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gs_se</t>
   </si>
 </sst>
 </file>
@@ -425,9 +422,6 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -464,10 +458,7 @@
         <v>0.030756880698673</v>
       </c>
       <c r="L2" t="n">
-        <v>0.62621359223301</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.00241216612314736</v>
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/RESULTS/_AUXILIARY/PS112_summary_effort.xlsx
+++ b/RESULTS/_AUXILIARY/PS112_summary_effort.xlsx
@@ -431,13 +431,13 @@
         <v>43214</v>
       </c>
       <c r="C2" t="n">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="D2" t="n">
-        <v>50.5259061117744</v>
+        <v>25.976144996021</v>
       </c>
       <c r="E2" t="n">
-        <v>3251.30500000003</v>
+        <v>3386.25408883924</v>
       </c>
       <c r="F2" t="n">
         <v>100</v>
@@ -455,10 +455,10 @@
         <v>129</v>
       </c>
       <c r="K2" t="n">
-        <v>0.030756880698673</v>
+        <v>0.029531156663521</v>
       </c>
       <c r="L2" t="n">
-        <v>1.29</v>
+        <v>1.27551020408163</v>
       </c>
     </row>
   </sheetData>
